--- a/data/BIO.xlsx
+++ b/data/BIO.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -503,7 +593,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F,W,SP,SURecommended: CHEM 110 or CHEM 111 or CHEM 124 or CHEM 127.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CHEM 110 or CHEM 111 or CHEM 124 or CHEM 127.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>F,W,SP,SU</t>
         </is>
       </c>
     </row>
@@ -520,12 +625,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BIO 161. Recommended: CHEM 110 or CHEM 111 or CHEM 124 or CHEM 127.</t>
+          <t>BIO 161.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CHEM 110 or CHEM 111 or CHEM 124 or CHEM 127.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -586,12 +736,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BIO 111; for Liberal Studies majors only. Recommended: STAT 130 or STAT 217.</t>
+          <t>BIO 111; for Liberal Studies majors only.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>STAT 130 or STAT 217.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -608,12 +773,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MATH 142; for engineering students only. Corequisite: BMED/BRAE 213. Recommended: CHEM 124.</t>
+          <t>MATH 142; for engineering students only.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>BMED/BRAE 213.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CHEM 124.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP  </t>
         </is>
       </c>
     </row>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BIO 111 or BIO 161; CHEM 110, CHEM 111, CHEM 124, CHEM 127, or PSC 102.</t>
+          <t>BIO 111 or BIO 161; CHEM 110, CHEM 111, CHEM 124, CHEM 127, or PSC 102.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BIO 111 or BIO 161; CHEM 110, CHEM 111, CHEM 124, CHEM 127, or PSC 102.</t>
+          <t>BIO 111 or BIO 161; CHEM 110, CHEM 111, CHEM 124, CHEM 127, or PSC 102.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BIO 160 or BIO 161.</t>
+          <t>BIO 160 or BIO 161.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -762,12 +1032,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Consent of instructor. Recommended: STAT 218.</t>
+          <t>Consent of instructor.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>STAT 218.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BIO 161 or MCRO 221 or MCRO 224; Completion of GE Area A with a grade of C- or better; GE Area D3; and consent of instructor.</t>
+          <t>BIO 161 or MCRO 221 or MCRO 224; Completion of GE Area A with a grade of C- or better; GE Area D3; and consent of instructor.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -806,12 +1106,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ASCI 112, BIO 111, BIO 123, BIO 161, BIO 213, or BOT 121. Recommended: STAT 217 or STAT 218.</t>
+          <t>ASCI 112, BIO 111, BIO 123, BIO 161, BIO 213, or BOT 121.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>STAT 217 or STAT 218.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -828,12 +1143,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BIO 111 or BIO 161 or BOT 121. Recommended: STAT 218.</t>
+          <t>BIO 111 or BIO 161 or BOT 121.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>STAT 218.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -855,6 +1185,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; completion of GE Area B2; and one of the following courses: CHEM 110, CHEM 124, or CHEM 127.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; completion of GE Area B2; and one of the following CHEM 110, CHEM 124, or CHEM 127.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>one of the following: BIO 162, BIO 263, NR 306 or ASCI 239.</t>
+          <t>one of the BIO 162, BIO 263, NR 306 or ASCI 239.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BIO 162.</t>
+          <t>BIO 162.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BIO 162 or BIO 263 or BIO 427 or ASCI 239.</t>
+          <t>BIO 162 or BIO 263 or BIO 427 or ASCI 239.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BIO 160 and BIO 162.</t>
+          <t>BIO 160 and BIO 162.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -982,12 +1402,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BIO 263 or NR 306. Recommended: STAT 217 or STAT 218.</t>
+          <t>BIO 263 or NR 306.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>STAT 217 or STAT 218.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Junior standing; BIO 162 or BIO 263 or BIO 427 or ASCI 239.</t>
+          <t>Junior standing; BIO 162 or BIO 263 or BIO 427 or ASCI 239.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
@@ -1031,7 +1481,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>WCorequisite: Enrollment in corresponding field biology course.</t>
+          <t>Enrollment in corresponding field biology course.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1048,12 +1513,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AEPS 313, BIO 160, or BIO 211. Recommended: BIO 162.</t>
+          <t>AEPS 313, BIO 160, or BIO 211.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>BIO 162.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BIO 160 and BIO 162.</t>
+          <t>BIO 160 and BIO 162.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1092,12 +1587,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BIO 161; CHEM 216, CHEM 312, or CHEM 316. Recommended: BIO 263; STAT 217 or STAT 218.</t>
+          <t>BIO 161; CHEM 216, CHEM 312, or CHEM 316.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>BIO 263; STAT 217 or STAT 218.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BIO 162; and CHEM 216, CHEM 312 or CHEM 316.</t>
+          <t>BIO 162; and CHEM 216, CHEM 312 or CHEM 316.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BIO 263 or NR 306, or graduate standing in Biological Sciences.</t>
+          <t>BIO 263 or NR 306, or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1158,12 +1698,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Consent of instructor. Recommended: STAT 218.</t>
+          <t>Consent of instructor.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>STAT 218.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BIO 161, BIO 162, and BIO 303 or BIO 351 or CHEM 373.</t>
+          <t>BIO 161, BIO 162, and BIO 303 or BIO 351 or CHEM 373.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BIO 361; CHEM 331 or STAT 218; PHYS 123 or PHYS 133; or graduate standing in Biological Sciences.</t>
+          <t>BIO 361; CHEM 331 or STAT 218; PHYS 123 or PHYS 133; or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BIO 361; CHEM 331 or STAT 218; or graduate standing in Biological Sciences.</t>
+          <t>BIO 361; CHEM 331 or STAT 218; or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BIO 361; CHEM 331 or STAT 218; or graduate standing in Biological Sciences.</t>
+          <t>BIO 361; CHEM 331 or STAT 218; or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BIO 361; CHEM 331 or STAT 218; PHYS 121 or PHYS 141; or graduate standing in Biological Sciences.</t>
+          <t>BIO 361; CHEM 331 or STAT 218; PHYS 121 or PHYS 141; or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ASCI 229 or BIO 231 or BIO 232 or BIO 361 or graduate standing in Biological Sciences.</t>
+          <t>ASCI 229 or BIO 231 or BIO 232 or BIO 361 or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1312,12 +1957,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BIO 263; and BIO 303 or BIO 351. Recommended: MCRO 224.</t>
+          <t>BIO 263; and BIO 303 or BIO 351.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MCRO 224.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1334,12 +1994,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BIO 263; and BIO 303 or BIO 351. Recommended: BIO 327, BOT 326, or MSCI 300.</t>
+          <t>BIO 263; and BIO 303 or BIO 351.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BIO 327, BOT 326, or MSCI 300.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BIO 263 or graduate standing in Biological Sciences.</t>
+          <t>BIO 263 or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1378,12 +2068,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>STAT 218 or graduate standing in Biological Sciences. Recommended: one of the following: BIO 263, BIO 327, BOT 326, MSCI 328 or NR 306.</t>
+          <t>STAT 218 or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>one of the BIO 263, BIO 327, BOT 326, MSCI 328 or NR 306.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1400,12 +2105,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BOT 121 or BIO 162; CHEM 127; and SS 120 or SS 130. Recommended: one of the following: BIO 327, BOT 313, BOT 326, MSCI 300, NR 305, or NR 306.</t>
+          <t>BOT 121 or BIO 162; CHEM 127; and SS 120 or SS 130.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>one of the BIO 327, BOT 313, BOT 326, MSCI 300, NR 305, or NR 306.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1427,6 +2147,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1444,12 +2179,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Acceptance into the Single Subject Credential Program in Science. Concurrent: EDUC 469 or EDUC 479.</t>
+          <t>Acceptance into the Single Subject Credential Program in Science.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>EDUC 469 or EDUC 479.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1466,12 +2216,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BIO 351 or CHEM 373. Recommended: CHEM 313 or CHEM 371.</t>
+          <t>BIO 351 or CHEM 373.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>CHEM 313 or CHEM 371.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -1488,10 +2253,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>One of the following upper-division ecology courses: BIO 327, BIO 363, BIO 401, BIO 444, BOT 326, MSCI 328, or NR 306, or graduate standing in Biological Sciences.</t>
+          <t>One of the following upper-division ecology BIO 327, BIO 363, BIO 401, BIO 444, BOT 326, MSCI 328, or NR 306, or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1510,12 +2290,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>one of the following: BIO 351, BIO 302, BIO 303, CHEM 373, or graduate standing in Biological Sciences. Recommended: BIO 361 or ZOO 332 or BMED 460; and CHEM 313 or CHEM 371.</t>
+          <t>one of the BIO 351, BIO 302, BIO 303, CHEM 373, or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SP, SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>BIO 361 or ZOO 332 or BMED 460; and CHEM 313 or CHEM 371.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP, SU </t>
         </is>
       </c>
     </row>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BIO 160 and BIO 161; or MCRO 221; or MCRO 224; or graduate standing in Biological Sciences.</t>
+          <t>BIO 160 and BIO 161; or MCRO 221; or MCRO 224; or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1554,12 +2364,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BIO 162, or graduate standing in Biological Sciences. Recommended: BIO 263.</t>
+          <t>BIO 162, or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>BIO 263.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1576,12 +2401,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BOT 121 or BIO 162. Recommended: BIO 161 or BIO 303; CHEM 312 or CHEM 216.</t>
+          <t>BOT 121 or BIO 162.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>BIO 161 or BIO 303; CHEM 312 or CHEM 216.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1598,12 +2438,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Junior standing; BIO 161 or BIO 303. Recommended: BIO 302 or BIO 303 or BIO 351 or CHEM 373.</t>
+          <t>Junior standing; BIO 161 or BIO 303.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>BIO 302 or BIO 303 or BIO 351 or CHEM 373.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -1620,10 +2475,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BIO 263, or graduate standing in Biological Sciences.</t>
+          <t>BIO 263, or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1642,10 +2512,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BIO 263 or NR 306.</t>
+          <t>BIO 263 or NR 306.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1664,12 +2549,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BIO 160, BIO 162, BIO 263, and STAT 218; or graduate standing in Biological Sciences. Recommended: BIO 327, BIO 363, BIO 401, BOT 326, or MSCI 328.</t>
+          <t>BIO 160, BIO 162, BIO 263, and STAT 218; or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>BIO 327, BIO 363, BIO 401, BOT 326, or MSCI 328.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1686,12 +2586,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BIO 263, BOT 326, or NR 306; and STAT 218, or Graduate standing in Biological Sciences. Recommended: BIO 327, BIO 363, BIO 401, MSCI 328, SS 120, or SS 121.</t>
+          <t>BIO 263, BOT 326, or NR 306; and STAT 218, or Graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BIO 327, BIO 363, BIO 401, MSCI 328, SS 120, or SS 121.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1713,6 +2628,21 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1730,12 +2660,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BIO 351 or CHEM 373; and CHEM 216, CHEM 312 or CHEM 316. Recommended: CHEM 313 or CHEM 371.</t>
+          <t>BIO 351 or CHEM 373; and CHEM 216, CHEM 312 or CHEM 316.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>CHEM 313 or CHEM 371.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1752,10 +2697,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Completion of GWR; STAT 218; and junior standing.</t>
+          <t>Completion of GWR; STAT 218; and junior standing.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -1774,12 +2734,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Completion of GWR; STAT 218; junior standing; and consent of instructor. Recommended: BIO 400.</t>
+          <t>Completion of GWR; STAT 218; junior standing; and consent of instructor.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>BIO 400.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -1796,10 +2771,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BIO 461 or BIO 462; and consent of instructor.</t>
+          <t>BIO 461 or BIO 462; and consent of instructor.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -1823,6 +2813,21 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1845,6 +2850,21 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1867,6 +2887,21 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1884,10 +2919,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BIO 161, and grade of C- or better in BIO 351 or CHEM 373 or consent of instructor.</t>
+          <t>BIO 161, and grade of C- or better in BIO 351 or CHEM 373 or consent of instructor.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1906,10 +2956,25 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BIO/CHEM 475; CHEM 313 or CHEM 371, or graduate standing in Biological Sciences.</t>
+          <t>BIO/CHEM 475; CHEM 313 or CHEM 371, or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1933,6 +2998,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1955,6 +3035,21 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1977,6 +3072,21 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1999,6 +3109,21 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2016,10 +3141,25 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BIO 501 and graduate standing in Biological Sciences, or consent of instructor.</t>
+          <t>BIO 501 and graduate standing in Biological Sciences, or consent of instructor.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2043,6 +3183,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2065,6 +3220,21 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2082,12 +3252,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Graduate standing in Biological Sciences or consent of instructor. Recommended: BIO 501.</t>
+          <t>Graduate standing in Biological Sciences or consent of instructor.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>BIO 501.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -2104,12 +3289,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Graduate standing in Biological Sciences, Biomedical Engineering, or Agriculture, or consent of instructor. Recommended: BIO 452 or BIO 501.</t>
+          <t>Graduate standing in Biological Sciences, Biomedical Engineering, or Agriculture, or consent of instructor.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>BIO 452 or BIO 501.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -2126,10 +3326,25 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BIO 442 or graduate standing.</t>
+          <t>BIO 442 or graduate standing.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2153,6 +3368,21 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -2175,6 +3405,21 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -2192,12 +3437,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>STAT 218 and graduate standing in Biological Sciences; or consent of instructor. Recommended: Experience with Excel and R.</t>
+          <t>STAT 218 and graduate standing in Biological Sciences; or consent of instructor.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Experience with Excel and R.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -2219,6 +3479,21 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2241,6 +3516,21 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2263,6 +3553,21 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2285,6 +3590,21 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2307,6 +3627,21 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2329,6 +3664,21 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -2351,6 +3701,21 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2373,6 +3738,21 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2395,6 +3775,21 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2417,6 +3812,21 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -2438,6 +3848,21 @@
         </is>
       </c>
       <c r="D95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
